--- a/contentconnector-poi-transformer/src/test/resources/com/gentics/cr/lucene/indexer/transformer/xls/test/testdoc.xlsx
+++ b/contentconnector-poi-transformer/src/test/resources/com/gentics/cr/lucene/indexer/transformer/xls/test/testdoc.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>testtext</t>
+    <t>testtextÜ</t>
   </si>
 </sst>
 </file>
